--- a/Tests/Phase 5 Home Page Unit Tests.xlsx
+++ b/Tests/Phase 5 Home Page Unit Tests.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Atech Computers Website Test Cases</t>
   </si>
@@ -46,13 +46,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Import 
-Products</t>
-  </si>
-  <si>
-    <t>1) Internet required</t>
   </si>
   <si>
     <t>1) Go to "Home Page" by default.
@@ -63,60 +56,74 @@
 2) Observe the new page.</t>
   </si>
   <si>
-    <t>1) Verify the Home link on left side of Menu bar
-2) Verify the Product page link located in menubar of Home page.
-3) verify the About Us link located in menubar of home page
-4) Verify the sign-in tag located on top right corner of home page.</t>
+    <t>Home Page</t>
   </si>
   <si>
     <t>1) Menubar and title is in header and in footer it is written"Copyright Atech Computers, 2016. All rights reserved" 
 2) Welcome: IBUTIT with cool images.
-3) Images should rotate automatically in set time period.</t>
+3) Images should switch automatically in set time period.</t>
+  </si>
+  <si>
+    <t>1) Verify the Home link on top left side of Menu bar
+2) Verify the Product page link located in menubar of Home page.
+3) Verify the About Us link located in menubar of home page
+4) Verify the sign-in box located on top right corner of home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Verify link of Cart located on top right corner of website.
+2) Click on Cart icon located on top right corner on Home page without adding any product to cart.
+3) Click on Cart located on top right corner in home page after adding product to cart.
+4) After adding products to Cart and you want to add another product to then click on "Keep on Shopping".
+5) To see product list added into the Cart, click Cart icon located on top right corner to the Home page.
+</t>
+  </si>
+  <si>
+    <t>1) It will direct the user to the Cart page.
+2) It will go to Cart page and show message "We're Sad. Your cart is empty".
+3) It will go to Cart page and show number of products added by user into Cart.
+4) It will go to Product page again to allow the user to select another product.
+5) It will show details of products on the side of Cart icon.</t>
+  </si>
+  <si>
+    <t>1) Verify Categories link on home page located below menubar
+2) Click any category option listed under Categories link.</t>
+  </si>
+  <si>
+    <t>1) It will direct the user to the Product Search page.
+2) It will go to Product Search page to search that particular category.</t>
+  </si>
+  <si>
+    <t>1) Verify different brands links located unders Brands icon on Home page.</t>
+  </si>
+  <si>
+    <t>1) It will direct the user to the Product Search page to select that particular brand.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t xml:space="preserve">1) Verify the header and footer
 2) Verify the title of Home Page
-3) Verify slideshow of images in home page
+3) Verify slideshow of images in Home page
 </t>
   </si>
   <si>
-    <t>1. Categories
-2. Brands</t>
-  </si>
-  <si>
-    <t>1) Verify Categories link in home page located below Menubar
-2) Click any item listed under categories link.</t>
-  </si>
-  <si>
-    <t>1) Verify different brands links located unders Brands tag in home page.</t>
-  </si>
-  <si>
-    <t>1) It will go to home page of website.
-2) It will do to product page.
-3) It will go to about Us page
-4) It will allow user to sign-in as administrator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Verify link of Cart located on top right corner of website.
-2) Click on Cart symbol located on top right corner on home page without adding any product to cart.
-3) Click on cart located on top right corner in home page after adding product to cart.
-4) After adding products to cart still you want another product to add then click on "Keep on Shopping".
-5) To see product list added into cart, click Cart symbol located on top right corner in home page.
-</t>
-  </si>
-  <si>
-    <t>1) It will got to cart page.
-2) It will go to cart page and show message "We're Sad. Your cart is empty".
-3) It will go to cart page and show number of products added by user into cart.
-4) It will go to product page again to select product for adding into cart.
-5) It will show number of products on the side of cart symbol.</t>
-  </si>
-  <si>
-    <t>1) It will go to product search page.
-2) It will go to product search page to search a particular category.</t>
-  </si>
-  <si>
-    <t>1) It will go to product search page to select particular brand.</t>
+    <t>1) It will direct the user to the actual Home page.
+2) It will direct the user to the Product page.
+3) It will direct the user to the About Us page
+4) It will allow user to sign-in as user.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Some Brands like philips is not listed under Brands in product search page.</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Not completed yet</t>
   </si>
 </sst>
 </file>
@@ -849,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,24 +932,22 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B5" s="26"/>
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -953,12 +958,14 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -972,9 +979,11 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -985,15 +994,19 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="27"/>
       <c r="C9" s="6">
@@ -1001,15 +1014,17 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="28"/>
       <c r="C10" s="10">
@@ -1020,10 +1035,14 @@
         <v>18</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
